--- a/配置/关卡配置.xlsx
+++ b/配置/关卡配置.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>LevelConfig</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>SceneName</t>
+  </si>
+  <si>
+    <t>NextLevel</t>
   </si>
   <si>
     <t>int</t>
@@ -983,60 +986,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/配置/关卡配置.xlsx
+++ b/配置/关卡配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17055"/>
+    <workbookView windowWidth="21094" windowHeight="7834"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>LevelConfig</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Level3</t>
+  </si>
+  <si>
+    <t>Level4</t>
   </si>
 </sst>
 </file>
@@ -986,20 +989,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="19.8738738738739" customWidth="1"/>
+    <col min="2" max="2" width="17.7477477477477" customWidth="1"/>
+    <col min="3" max="3" width="17.8738738738739" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,6 +1059,17 @@
         <v>8</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>-1</v>
       </c>
     </row>
@@ -1075,7 +1089,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1092,7 +1106,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/配置/关卡配置.xlsx
+++ b/配置/关卡配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21094" windowHeight="7834"/>
+    <workbookView windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>LevelConfig</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Level4</t>
+  </si>
+  <si>
+    <t>Level99</t>
   </si>
 </sst>
 </file>
@@ -989,20 +992,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.8738738738739" customWidth="1"/>
-    <col min="2" max="2" width="17.7477477477477" customWidth="1"/>
-    <col min="3" max="3" width="17.8738738738739" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,6 +1074,17 @@
       </c>
       <c r="C7">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1103,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1106,7 +1120,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/配置/关卡配置.xlsx
+++ b/配置/关卡配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17055"/>
+    <workbookView windowWidth="21094" windowHeight="7834"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>LevelConfig</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Level4</t>
+  </si>
+  <si>
+    <t>Level5</t>
   </si>
   <si>
     <t>Level99</t>
@@ -995,17 +998,17 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="19.8738738738739" customWidth="1"/>
+    <col min="2" max="2" width="17.7477477477477" customWidth="1"/>
+    <col min="3" max="3" width="17.8738738738739" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,6 +1076,17 @@
         <v>9</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
         <v>-1</v>
       </c>
     </row>
@@ -1081,7 +1095,7 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1103,7 +1117,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1120,7 +1134,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/配置/关卡配置.xlsx
+++ b/配置/关卡配置.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>LevelConfig</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Level5</t>
+  </si>
+  <si>
+    <t>Level6</t>
   </si>
   <si>
     <t>Level99</t>
@@ -998,7 +1001,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
@@ -1087,6 +1090,17 @@
         <v>10</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
         <v>-1</v>
       </c>
     </row>
@@ -1095,7 +1109,7 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>1</v>

--- a/配置/关卡配置.xlsx
+++ b/配置/关卡配置.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>LevelConfig</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Level6</t>
+  </si>
+  <si>
+    <t>Level7</t>
   </si>
   <si>
     <t>Level99</t>
@@ -1001,7 +1004,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
@@ -1101,6 +1104,17 @@
         <v>11</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>-1</v>
       </c>
     </row>
@@ -1109,7 +1123,7 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>1</v>

--- a/配置/关卡配置.xlsx
+++ b/配置/关卡配置.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>LevelConfig</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Level7</t>
+  </si>
+  <si>
+    <t>Level8</t>
   </si>
   <si>
     <t>Level99</t>
@@ -1004,7 +1007,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
@@ -1115,6 +1118,17 @@
         <v>12</v>
       </c>
       <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
         <v>-1</v>
       </c>
     </row>
@@ -1123,7 +1137,7 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>1</v>

--- a/配置/关卡配置.xlsx
+++ b/配置/关卡配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21094" windowHeight="7834"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>LevelConfig</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Level8</t>
+  </si>
+  <si>
+    <t>Level9</t>
   </si>
   <si>
     <t>Level99</t>
@@ -1007,17 +1010,17 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.8738738738739" customWidth="1"/>
-    <col min="2" max="2" width="17.7477477477477" customWidth="1"/>
-    <col min="3" max="3" width="17.8738738738739" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,6 +1132,17 @@
         <v>13</v>
       </c>
       <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
         <v>-1</v>
       </c>
     </row>
@@ -1137,7 +1151,7 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1159,7 +1173,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1176,7 +1190,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/配置/关卡配置.xlsx
+++ b/配置/关卡配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>LevelConfig</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Level9</t>
-  </si>
-  <si>
-    <t>Level99</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1144,17 +1141,6 @@
       </c>
       <c r="C12">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
